--- a/4G/DFT.xlsx
+++ b/4G/DFT.xlsx
@@ -470,16 +470,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.480060849549773e-13</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>5.480060849549773e-15</v>
+        <v>6.821210263296962e-15</v>
       </c>
       <c r="E2" t="n">
-        <v>5.480060849549773e-15</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -490,16 +490,16 @@
         <v>0.01</v>
       </c>
       <c r="B3" t="n">
-        <v>7.007727731433988e-13</v>
+        <v>8.79296635503124e-13</v>
       </c>
       <c r="C3" t="n">
-        <v>-50.00000000000021</v>
+        <v>-49.99999999999996</v>
       </c>
       <c r="D3" t="n">
-        <v>1.401545546286798e-14</v>
+        <v>1.758593271006248e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>1.401545546286798e-14</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -510,16 +510,16 @@
         <v>0.02</v>
       </c>
       <c r="B4" t="n">
-        <v>150.0000000000009</v>
+        <v>250.0000000000006</v>
       </c>
       <c r="C4" t="n">
-        <v>-99.99999999999973</v>
+        <v>7.607248164731573e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>3.000000000000018</v>
+        <v>5.000000000000012</v>
       </c>
       <c r="E4" t="n">
-        <v>3.000000000000018</v>
+        <v>-1.521449632946314e-14</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -530,16 +530,16 @@
         <v>0.03</v>
       </c>
       <c r="B5" t="n">
-        <v>1.541877736599417e-12</v>
+        <v>149.9999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-199.9999999999997</v>
+        <v>5.544453784978032e-13</v>
       </c>
       <c r="D5" t="n">
-        <v>3.083755473198835e-14</v>
+        <v>2.999999999999998</v>
       </c>
       <c r="E5" t="n">
-        <v>3.083755473198835e-14</v>
+        <v>-1.108890756995606e-14</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
@@ -550,16 +550,16 @@
         <v>0.04</v>
       </c>
       <c r="B6" t="n">
-        <v>249.9999999999999</v>
+        <v>5.027089855502709e-13</v>
       </c>
       <c r="C6" t="n">
-        <v>2.257305453667868e-12</v>
+        <v>-99.99999999999993</v>
       </c>
       <c r="D6" t="n">
-        <v>4.999999999999999</v>
+        <v>1.005417971100542e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>4.999999999999999</v>
+        <v>1.999999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
@@ -570,16 +570,16 @@
         <v>0.05</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.567280135845067e-13</v>
+        <v>99.99999999999983</v>
       </c>
       <c r="C7" t="n">
-        <v>4.169997680492088e-13</v>
+        <v>1.226130308396023e-12</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.513456027169013e-14</v>
+        <v>1.999999999999997</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.513456027169013e-14</v>
+        <v>-2.452260616792046e-14</v>
       </c>
       <c r="F7" t="n">
         <v>5</v>
@@ -590,16 +590,16 @@
         <v>0.06</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.078337502098293e-13</v>
+        <v>-3.641531520770513e-13</v>
       </c>
       <c r="C8" t="n">
-        <v>1.940669847044774e-13</v>
+        <v>1.527666881884215e-13</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.156675004196586e-15</v>
+        <v>-7.283063041541026e-15</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.156675004196586e-15</v>
+        <v>-3.055333763768431e-15</v>
       </c>
       <c r="F8" t="n">
         <v>6</v>
@@ -610,16 +610,16 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.655653474903374e-13</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="C9" t="n">
-        <v>1.980637875931279e-13</v>
+        <v>9.059419880941277e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.311306949806749e-15</v>
+        <v>-2.1316282072803e-15</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.311306949806749e-15</v>
+        <v>-1.811883976188256e-15</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
@@ -630,16 +630,16 @@
         <v>0.08</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.660893644839234e-13</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="C10" t="n">
-        <v>5.506706202140776e-14</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.321787289678469e-15</v>
+        <v>-3.161915174132446e-15</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.321787289678469e-15</v>
+        <v>-1.776356839400251e-17</v>
       </c>
       <c r="F10" t="n">
         <v>8</v>
@@ -650,16 +650,16 @@
         <v>0.09</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.465494392505207e-13</v>
+        <v>-5.595524044110789e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>1.469935284603707e-13</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.930988785010413e-15</v>
+        <v>-1.119104808822158e-15</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.930988785010413e-15</v>
+        <v>-7.105427357601002e-16</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
@@ -670,16 +670,16 @@
         <v>0.09999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.707345624410664e-14</v>
+        <v>-9.85878045867139e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>-3.108624468950438e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.414691248821328e-16</v>
+        <v>-1.971756091734278e-15</v>
       </c>
       <c r="E12" t="n">
-        <v>-9.414691248821328e-16</v>
+        <v>6.217248937900876e-16</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
@@ -690,16 +690,16 @@
         <v>0.11</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.632649736573512e-13</v>
+        <v>-3.677058657558518e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>2.797762022055394e-13</v>
+        <v>1.332267629550188e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.265299473147024e-15</v>
+        <v>-7.354117315117036e-15</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.265299473147024e-15</v>
+        <v>-2.664535259100376e-16</v>
       </c>
       <c r="F13" t="n">
         <v>11</v>
@@ -710,16 +710,16 @@
         <v>0.12</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.352074256530614e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>-3.552713678800501e-15</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.704148513061227e-16</v>
+        <v>-2.273736754432321e-15</v>
       </c>
       <c r="E14" t="n">
-        <v>-8.704148513061227e-16</v>
+        <v>7.105427357601002e-17</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
@@ -730,16 +730,16 @@
         <v>0.13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.953992523340276e-14</v>
+        <v>-2.131628207280301e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>2.229327833447314e-13</v>
+        <v>2.122746423083299e-13</v>
       </c>
       <c r="D15" t="n">
-        <v>3.907985046680551e-16</v>
+        <v>-4.263256414560601e-16</v>
       </c>
       <c r="E15" t="n">
-        <v>3.907985046680551e-16</v>
+        <v>-4.245492846166599e-15</v>
       </c>
       <c r="F15" t="n">
         <v>13</v>
@@ -750,16 +750,16 @@
         <v>0.14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>-1.27897692436818e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.714184350021242e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>2.273736754432321e-15</v>
+        <v>-2.557953848736361e-15</v>
       </c>
       <c r="E16" t="n">
-        <v>2.273736754432321e-15</v>
+        <v>-3.428368700042483e-15</v>
       </c>
       <c r="F16" t="n">
         <v>14</v>
@@ -770,16 +770,16 @@
         <v>0.15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.77635683940025e-15</v>
+        <v>-3.268496584496461e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>-2.042810365310288e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.552713678800501e-17</v>
+        <v>-6.536993168992922e-15</v>
       </c>
       <c r="E17" t="n">
-        <v>-3.552713678800501e-17</v>
+        <v>4.085620730620576e-15</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
@@ -790,16 +790,16 @@
         <v>0.16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.793321129956894e-13</v>
+        <v>-2.930988785010413e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.163513729807164e-13</v>
+        <v>-1.474376176702208e-13</v>
       </c>
       <c r="D18" t="n">
-        <v>5.586642259913788e-15</v>
+        <v>-5.861977570020827e-16</v>
       </c>
       <c r="E18" t="n">
-        <v>5.586642259913788e-15</v>
+        <v>2.948752353404416e-15</v>
       </c>
       <c r="F18" t="n">
         <v>16</v>
@@ -810,16 +810,16 @@
         <v>0.17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.674216321134736e-13</v>
+        <v>6.217248937900877e-15</v>
       </c>
       <c r="C19" t="n">
-        <v>2.575717417130363e-13</v>
+        <v>4.085620730620576e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>3.348432642269472e-15</v>
+        <v>1.243449787580175e-16</v>
       </c>
       <c r="E19" t="n">
-        <v>3.348432642269472e-15</v>
+        <v>-8.171241461241152e-16</v>
       </c>
       <c r="F19" t="n">
         <v>17</v>
@@ -830,16 +830,16 @@
         <v>0.18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.150191053511662e-13</v>
+        <v>5.506706202140776e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>1.243449787580175e-13</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.300382107023324e-15</v>
+        <v>1.101341240428155e-15</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.300382107023324e-15</v>
+        <v>2.842170943040401e-15</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
@@ -850,16 +850,16 @@
         <v>0.19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.35003119794419e-13</v>
+        <v>-1.221245327087672e-13</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.030286966852145e-13</v>
+        <v>-2.966515921798418e-13</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.700062395888381e-15</v>
+        <v>-2.442490654175344e-15</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.700062395888381e-15</v>
+        <v>5.933031843596836e-15</v>
       </c>
       <c r="F21" t="n">
         <v>19</v>
@@ -870,16 +870,16 @@
         <v>0.2</v>
       </c>
       <c r="B22" t="n">
-        <v>8.393286066166183e-14</v>
+        <v>-7.549516567451064e-15</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.838529328779259e-13</v>
+        <v>-3.854694341498544e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>1.678657213233237e-15</v>
+        <v>-1.509903313490213e-16</v>
       </c>
       <c r="E22" t="n">
-        <v>1.678657213233237e-15</v>
+        <v>7.709388682997087e-15</v>
       </c>
       <c r="F22" t="n">
         <v>20</v>
@@ -890,16 +890,16 @@
         <v>0.21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.618705169903478e-13</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="C23" t="n">
-        <v>2.398081733190338e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.237410339806956e-15</v>
+        <v>7.105427357601002e-17</v>
       </c>
       <c r="E23" t="n">
-        <v>-3.237410339806956e-15</v>
+        <v>2.273736754432321e-15</v>
       </c>
       <c r="F23" t="n">
         <v>21</v>
@@ -910,16 +910,16 @@
         <v>0.2200000000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.452171716209705e-13</v>
+        <v>-1.882938249764265e-13</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.220446049250313e-14</v>
+        <v>-1.27897692436818e-13</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.90434343241941e-15</v>
+        <v>-3.765876499528531e-15</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.90434343241941e-15</v>
+        <v>2.557953848736361e-15</v>
       </c>
       <c r="F24" t="n">
         <v>22</v>
@@ -930,16 +930,16 @@
         <v>0.2300000000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.143840660551177e-13</v>
+        <v>-3.563815909046752e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>4.556355293061642e-13</v>
+        <v>-1.332267629550188e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.287681321102354e-15</v>
+        <v>-7.127631818093505e-15</v>
       </c>
       <c r="E25" t="n">
-        <v>-4.287681321102354e-15</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="F25" t="n">
         <v>23</v>
@@ -950,16 +950,16 @@
         <v>0.2400000000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>5.434541705540141e-13</v>
+        <v>3.064215547965432e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>2.797762022055394e-13</v>
+        <v>1.06581410364015e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>1.086908341108028e-14</v>
+        <v>6.128431095930864e-16</v>
       </c>
       <c r="E26" t="n">
-        <v>1.086908341108028e-14</v>
+        <v>-2.1316282072803e-16</v>
       </c>
       <c r="F26" t="n">
         <v>24</v>
@@ -970,16 +970,16 @@
         <v>0.2500000000000001</v>
       </c>
       <c r="B27" t="n">
-        <v>2.970733819132306e-13</v>
+        <v>1.726284640481777e-13</v>
       </c>
       <c r="C27" t="n">
-        <v>3.286260152890463e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="D27" t="n">
-        <v>5.941467638264613e-15</v>
+        <v>3.452569280963554e-15</v>
       </c>
       <c r="E27" t="n">
-        <v>5.941467638264613e-15</v>
+        <v>2.273736754432321e-15</v>
       </c>
       <c r="F27" t="n">
         <v>25</v>
@@ -990,16 +990,16 @@
         <v>0.2600000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>-3.153588501447757e-13</v>
+        <v>-5.218048215738236e-15</v>
       </c>
       <c r="C28" t="n">
-        <v>1.874056465567264e-13</v>
+        <v>1.456612608308205e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>-6.307177002895515e-15</v>
+        <v>-1.043609643147647e-16</v>
       </c>
       <c r="E28" t="n">
-        <v>-6.307177002895515e-15</v>
+        <v>-2.913225216616411e-15</v>
       </c>
       <c r="F28" t="n">
         <v>26</v>
@@ -1010,16 +1010,16 @@
         <v>0.2700000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>-3.984590435379687e-13</v>
+        <v>-1.780797731498751e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>3.206324095117452e-13</v>
+        <v>1.06581410364015e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.969180870759374e-15</v>
+        <v>-3.561595462997502e-15</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.969180870759374e-15</v>
+        <v>-2.1316282072803e-16</v>
       </c>
       <c r="F29" t="n">
         <v>27</v>
@@ -1030,16 +1030,16 @@
         <v>0.2800000000000001</v>
       </c>
       <c r="B30" t="n">
-        <v>2.069455717901292e-13</v>
+        <v>-1.91624494050302e-13</v>
       </c>
       <c r="C30" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>-3.197442310920451e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>4.138911435802584e-15</v>
+        <v>-3.832489881006041e-15</v>
       </c>
       <c r="E30" t="n">
-        <v>4.138911435802584e-15</v>
+        <v>6.394884621840901e-16</v>
       </c>
       <c r="F30" t="n">
         <v>28</v>
@@ -1050,16 +1050,16 @@
         <v>0.2900000000000001</v>
       </c>
       <c r="B31" t="n">
-        <v>-9.992007221626409e-15</v>
+        <v>3.654854197066015e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.882938249764265e-13</v>
+        <v>2.309263891220326e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.998401444325282e-16</v>
+        <v>7.309708394132031e-15</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.998401444325282e-16</v>
+        <v>-4.618527782440651e-15</v>
       </c>
       <c r="F31" t="n">
         <v>29</v>
@@ -1070,16 +1070,16 @@
         <v>0.3000000000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>-5.435651928564766e-13</v>
+        <v>-1.922906278650771e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>1.252331571777177e-13</v>
+        <v>3.002043058586423e-13</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.087130385712953e-14</v>
+        <v>-3.845812557301542e-15</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.087130385712953e-14</v>
+        <v>-6.004086117172846e-15</v>
       </c>
       <c r="F32" t="n">
         <v>30</v>
@@ -1090,16 +1090,16 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>-4.503064587879635e-13</v>
+        <v>-4.005684672847565e-13</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.980637875931279e-13</v>
+        <v>-8.171241461241152e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>-9.00612917575927e-15</v>
+        <v>-8.011369345695129e-15</v>
       </c>
       <c r="E33" t="n">
-        <v>-9.00612917575927e-15</v>
+        <v>1.63424829224823e-15</v>
       </c>
       <c r="F33" t="n">
         <v>31</v>
@@ -1110,16 +1110,16 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="B34" t="n">
-        <v>1.953992523340276e-14</v>
+        <v>-1.731947918415244e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.61488616817951e-13</v>
+        <v>-4.796163466380676e-14</v>
       </c>
       <c r="D34" t="n">
-        <v>3.907985046680551e-16</v>
+        <v>-3.463895836830488e-15</v>
       </c>
       <c r="E34" t="n">
-        <v>3.907985046680551e-16</v>
+        <v>9.592326932761353e-16</v>
       </c>
       <c r="F34" t="n">
         <v>32</v>
@@ -1130,16 +1130,16 @@
         <v>0.3300000000000001</v>
       </c>
       <c r="B35" t="n">
-        <v>4.04121180963557e-14</v>
+        <v>-2.460254222569347e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>2.433608869978343e-13</v>
+        <v>-1.06581410364015e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>8.08242361927114e-16</v>
+        <v>-4.920508445138694e-15</v>
       </c>
       <c r="E35" t="n">
-        <v>8.08242361927114e-16</v>
+        <v>2.1316282072803e-16</v>
       </c>
       <c r="F35" t="n">
         <v>33</v>
@@ -1150,16 +1150,16 @@
         <v>0.3400000000000001</v>
       </c>
       <c r="B36" t="n">
-        <v>-6.732392421326949e-13</v>
+        <v>8.171241461241152e-14</v>
       </c>
       <c r="C36" t="n">
-        <v>-4.796163466380676e-13</v>
+        <v>3.996802888650564e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.34647848426539e-14</v>
+        <v>1.63424829224823e-15</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.34647848426539e-14</v>
+        <v>-7.993605777301127e-16</v>
       </c>
       <c r="F36" t="n">
         <v>34</v>
@@ -1170,16 +1170,16 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>2.522426711948356e-13</v>
+        <v>-6.474820679613913e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>-7.558398351648066e-13</v>
+        <v>-7.220890552162018e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>5.044853423896711e-15</v>
+        <v>-1.294964135922783e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>5.044853423896711e-15</v>
+        <v>1.444178110432404e-14</v>
       </c>
       <c r="F37" t="n">
         <v>35</v>
@@ -1190,16 +1190,16 @@
         <v>0.3600000000000002</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.042810365310288e-13</v>
+        <v>3.321787289678468e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>-9.325873406851315e-14</v>
+        <v>2.451372438372346e-13</v>
       </c>
       <c r="D38" t="n">
-        <v>-4.085620730620576e-15</v>
+        <v>6.643574579356937e-15</v>
       </c>
       <c r="E38" t="n">
-        <v>-4.085620730620576e-15</v>
+        <v>-4.902744876744691e-15</v>
       </c>
       <c r="F38" t="n">
         <v>36</v>
@@ -1210,16 +1210,16 @@
         <v>0.3700000000000002</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.549072064539359e-13</v>
+        <v>-6.492584248007915e-13</v>
       </c>
       <c r="C39" t="n">
-        <v>-2.451372438372346e-13</v>
+        <v>2.700062395888381e-13</v>
       </c>
       <c r="D39" t="n">
-        <v>-5.098144129078719e-15</v>
+        <v>-1.298516849601583e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>-5.098144129078719e-15</v>
+        <v>-5.400124791776761e-15</v>
       </c>
       <c r="F39" t="n">
         <v>37</v>
@@ -1230,16 +1230,16 @@
         <v>0.3800000000000002</v>
       </c>
       <c r="B40" t="n">
-        <v>-4.654054919228656e-13</v>
+        <v>-6.812328479099961e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>-2.069455717901292e-13</v>
+        <v>-4.032330025438569e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>-9.308109838457313e-15</v>
+        <v>-1.362465695819992e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>-9.308109838457313e-15</v>
+        <v>8.064660050877137e-15</v>
       </c>
       <c r="F40" t="n">
         <v>38</v>
@@ -1250,16 +1250,16 @@
         <v>0.3900000000000002</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.714184350021242e-13</v>
+        <v>-8.615330671091215e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>1.501021529293212e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>-3.428368700042483e-15</v>
+        <v>-1.723066134218243e-15</v>
       </c>
       <c r="E41" t="n">
-        <v>-3.428368700042483e-15</v>
+        <v>-3.002043058586423e-15</v>
       </c>
       <c r="F41" t="n">
         <v>39</v>
@@ -1270,16 +1270,16 @@
         <v>0.4000000000000002</v>
       </c>
       <c r="B42" t="n">
-        <v>-2.566835632933362e-13</v>
+        <v>7.283063041541027e-14</v>
       </c>
       <c r="C42" t="n">
-        <v>2.358113704303832e-13</v>
+        <v>-1.110223024625157e-13</v>
       </c>
       <c r="D42" t="n">
-        <v>-5.133671265866724e-15</v>
+        <v>1.456612608308205e-15</v>
       </c>
       <c r="E42" t="n">
-        <v>-5.133671265866724e-15</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="F42" t="n">
         <v>40</v>
@@ -1290,16 +1290,16 @@
         <v>0.4100000000000002</v>
       </c>
       <c r="B43" t="n">
-        <v>-3.907985046680551e-13</v>
+        <v>-8.881784197001252e-14</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.154187856400313e-12</v>
+        <v>-4.733990977001667e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.815970093361103e-15</v>
+        <v>-1.77635683940025e-15</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.815970093361103e-15</v>
+        <v>9.467981954003335e-15</v>
       </c>
       <c r="F43" t="n">
         <v>41</v>
@@ -1310,16 +1310,16 @@
         <v>0.4200000000000002</v>
       </c>
       <c r="B44" t="n">
-        <v>-3.783640067922533e-13</v>
+        <v>-4.778399897986674e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>-3.366196210663475e-13</v>
+        <v>5.506706202140776e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.567280135845067e-15</v>
+        <v>-9.556799795973347e-15</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.567280135845067e-15</v>
+        <v>-1.101341240428155e-15</v>
       </c>
       <c r="F44" t="n">
         <v>42</v>
@@ -1330,16 +1330,16 @@
         <v>0.4300000000000002</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.27897692436818e-13</v>
+        <v>1.509903313490213e-13</v>
       </c>
       <c r="C45" t="n">
-        <v>-3.548272786702e-13</v>
+        <v>5.417888360170764e-14</v>
       </c>
       <c r="D45" t="n">
-        <v>-2.557953848736361e-15</v>
+        <v>3.019806626980426e-15</v>
       </c>
       <c r="E45" t="n">
-        <v>-2.557953848736361e-15</v>
+        <v>-1.083577672034153e-15</v>
       </c>
       <c r="F45" t="n">
         <v>43</v>
@@ -1350,16 +1350,16 @@
         <v>0.4400000000000002</v>
       </c>
       <c r="B46" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>-4.742872761198669e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>-4.618527782440651e-13</v>
+        <v>-4.476419235288631e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>-6.821210263296962e-15</v>
+        <v>-9.485745522397337e-15</v>
       </c>
       <c r="E46" t="n">
-        <v>-6.821210263296962e-15</v>
+        <v>8.952838470577262e-15</v>
       </c>
       <c r="F46" t="n">
         <v>44</v>
@@ -1370,16 +1370,16 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B47" t="n">
-        <v>-5.702105454474804e-13</v>
+        <v>-1.971756091734278e-13</v>
       </c>
       <c r="C47" t="n">
-        <v>-4.023448241241567e-13</v>
+        <v>-1.931788062847772e-13</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.140421090894961e-14</v>
+        <v>-3.943512183468556e-15</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.140421090894961e-14</v>
+        <v>3.863576125695544e-15</v>
       </c>
       <c r="F47" t="n">
         <v>45</v>
@@ -1390,16 +1390,16 @@
         <v>0.4600000000000002</v>
       </c>
       <c r="B48" t="n">
-        <v>-6.306066779870889e-14</v>
+        <v>-9.592326932761353e-14</v>
       </c>
       <c r="C48" t="n">
-        <v>-7.567280135845067e-13</v>
+        <v>-3.708144902248023e-13</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.261213355974178e-15</v>
+        <v>-1.918465386552271e-15</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.261213355974178e-15</v>
+        <v>7.416289804496045e-15</v>
       </c>
       <c r="F48" t="n">
         <v>46</v>
@@ -1410,16 +1410,16 @@
         <v>0.4700000000000003</v>
       </c>
       <c r="B49" t="n">
-        <v>9.592326932761353e-14</v>
+        <v>-5.258016244624741e-13</v>
       </c>
       <c r="C49" t="n">
-        <v>4.287681321102355e-13</v>
+        <v>3.825828542858289e-13</v>
       </c>
       <c r="D49" t="n">
-        <v>1.918465386552271e-15</v>
+        <v>-1.051603248924948e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>1.918465386552271e-15</v>
+        <v>-7.651657085716579e-15</v>
       </c>
       <c r="F49" t="n">
         <v>47</v>
@@ -1430,16 +1430,16 @@
         <v>0.4800000000000003</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.127986593019159e-13</v>
+        <v>-2.309263891220326e-14</v>
       </c>
       <c r="C50" t="n">
-        <v>-4.468647674116255e-13</v>
+        <v>-3.796962744218035e-14</v>
       </c>
       <c r="D50" t="n">
-        <v>-2.255973186038318e-15</v>
+        <v>-4.618527782440651e-16</v>
       </c>
       <c r="E50" t="n">
-        <v>-2.255973186038318e-15</v>
+        <v>7.593925488436071e-16</v>
       </c>
       <c r="F50" t="n">
         <v>48</v>
@@ -1450,16 +1450,16 @@
         <v>0.4900000000000003</v>
       </c>
       <c r="B51" t="n">
-        <v>-3.446132268436486e-13</v>
+        <v>-8.526512829121202e-14</v>
       </c>
       <c r="C51" t="n">
-        <v>-2.539635168830046e-13</v>
+        <v>-1.922906278650771e-13</v>
       </c>
       <c r="D51" t="n">
-        <v>-6.892264536872972e-15</v>
+        <v>-1.70530256582424e-15</v>
       </c>
       <c r="E51" t="n">
-        <v>-6.892264536872972e-15</v>
+        <v>3.845812557301542e-15</v>
       </c>
       <c r="F51" t="n">
         <v>49</v>
@@ -1470,16 +1470,16 @@
         <v>0.5000000000000002</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.865174681370263e-14</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="C52" t="n">
-        <v>-3.19777868184822e-13</v>
+        <v>1.093049087670709e-12</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.865174681370263e-16</v>
+        <v>-2.842170943040401e-16</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.865174681370263e-16</v>
+        <v>-2.186098175341419e-14</v>
       </c>
       <c r="F52" t="n">
         <v>50</v>
@@ -1490,16 +1490,16 @@
         <v>0.5100000000000002</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.115552095143357e-12</v>
+        <v>-4.813927034774679e-13</v>
       </c>
       <c r="C53" t="n">
-        <v>4.017897126118442e-13</v>
+        <v>8.045786259458509e-13</v>
       </c>
       <c r="D53" t="n">
-        <v>-2.231104190286715e-14</v>
+        <v>-9.627854069549357e-15</v>
       </c>
       <c r="E53" t="n">
-        <v>-2.231104190286715e-14</v>
+        <v>-1.609157251891702e-14</v>
       </c>
       <c r="F53" t="n">
         <v>51</v>
@@ -1510,16 +1510,16 @@
         <v>0.5200000000000002</v>
       </c>
       <c r="B54" t="n">
-        <v>1.447730824111204e-13</v>
+        <v>-3.019806626980426e-13</v>
       </c>
       <c r="C54" t="n">
-        <v>1.026179141661032e-12</v>
+        <v>4.996003610813204e-14</v>
       </c>
       <c r="D54" t="n">
-        <v>2.895461648222408e-15</v>
+        <v>-6.039613253960851e-15</v>
       </c>
       <c r="E54" t="n">
-        <v>2.895461648222408e-15</v>
+        <v>-9.992007221626409e-16</v>
       </c>
       <c r="F54" t="n">
         <v>52</v>
@@ -1530,16 +1530,16 @@
         <v>0.5300000000000002</v>
       </c>
       <c r="B55" t="n">
-        <v>-5.24913446042774e-13</v>
+        <v>-4.529709940470639e-13</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.052713471949573e-12</v>
+        <v>-8.961720254774264e-13</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.049826892085548e-14</v>
+        <v>-9.059419880941277e-15</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.049826892085548e-14</v>
+        <v>1.792344050954853e-14</v>
       </c>
       <c r="F55" t="n">
         <v>53</v>
@@ -1550,16 +1550,16 @@
         <v>0.5400000000000003</v>
       </c>
       <c r="B56" t="n">
-        <v>2.131628207280301e-14</v>
+        <v>-7.815970093361102e-14</v>
       </c>
       <c r="C56" t="n">
-        <v>5.009326287108706e-13</v>
+        <v>4.525269048372138e-13</v>
       </c>
       <c r="D56" t="n">
-        <v>4.263256414560601e-16</v>
+        <v>-1.56319401867222e-15</v>
       </c>
       <c r="E56" t="n">
-        <v>4.263256414560601e-16</v>
+        <v>-9.050538096744276e-15</v>
       </c>
       <c r="F56" t="n">
         <v>54</v>
@@ -1570,16 +1570,16 @@
         <v>0.5500000000000003</v>
       </c>
       <c r="B57" t="n">
-        <v>-5.506706202140776e-14</v>
+        <v>6.785683126508957e-13</v>
       </c>
       <c r="C57" t="n">
-        <v>-6.368239269249898e-13</v>
+        <v>-5.733191699164308e-13</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.101341240428155e-15</v>
+        <v>1.357136625301791e-14</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.101341240428155e-15</v>
+        <v>1.146638339832862e-14</v>
       </c>
       <c r="F57" t="n">
         <v>55</v>
@@ -1590,16 +1590,16 @@
         <v>0.5600000000000003</v>
       </c>
       <c r="B58" t="n">
-        <v>2.637889906509372e-13</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="C58" t="n">
-        <v>1.536548666081217e-13</v>
+        <v>-2.566835632933362e-13</v>
       </c>
       <c r="D58" t="n">
-        <v>5.275779813018744e-15</v>
+        <v>3.410605131648481e-15</v>
       </c>
       <c r="E58" t="n">
-        <v>5.275779813018744e-15</v>
+        <v>5.133671265866724e-15</v>
       </c>
       <c r="F58" t="n">
         <v>56</v>
@@ -1610,16 +1610,16 @@
         <v>0.5700000000000003</v>
       </c>
       <c r="B59" t="n">
-        <v>-2.744471316873387e-13</v>
+        <v>-2.877698079828406e-13</v>
       </c>
       <c r="C59" t="n">
-        <v>4.503064587879635e-13</v>
+        <v>6.283862319378386e-13</v>
       </c>
       <c r="D59" t="n">
-        <v>-5.488942633746774e-15</v>
+        <v>-5.755396159656812e-15</v>
       </c>
       <c r="E59" t="n">
-        <v>-5.488942633746774e-15</v>
+        <v>-1.256772463875677e-14</v>
       </c>
       <c r="F59" t="n">
         <v>57</v>
@@ -1630,16 +1630,16 @@
         <v>0.5800000000000003</v>
       </c>
       <c r="B60" t="n">
-        <v>5.027089855502709e-13</v>
+        <v>-1.332267629550188e-13</v>
       </c>
       <c r="C60" t="n">
-        <v>-5.728750807065808e-13</v>
+        <v>-5.506706202140776e-13</v>
       </c>
       <c r="D60" t="n">
-        <v>1.005417971100542e-14</v>
+        <v>-2.664535259100376e-15</v>
       </c>
       <c r="E60" t="n">
-        <v>1.005417971100542e-14</v>
+        <v>1.101341240428155e-14</v>
       </c>
       <c r="F60" t="n">
         <v>58</v>
@@ -1650,16 +1650,16 @@
         <v>0.5900000000000003</v>
       </c>
       <c r="B61" t="n">
-        <v>-5.506706202140776e-13</v>
+        <v>3.161915174132446e-13</v>
       </c>
       <c r="C61" t="n">
-        <v>1.336708521648688e-13</v>
+        <v>-2.486899575160351e-13</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.101341240428155e-14</v>
+        <v>6.323830348264892e-15</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.101341240428155e-14</v>
+        <v>4.973799150320701e-15</v>
       </c>
       <c r="F61" t="n">
         <v>59</v>
@@ -1670,16 +1670,16 @@
         <v>0.6000000000000003</v>
       </c>
       <c r="B62" t="n">
-        <v>1.323385845353187e-13</v>
+        <v>5.17808018685173e-13</v>
       </c>
       <c r="C62" t="n">
-        <v>-2.8377300509419e-13</v>
+        <v>-1.598721155460225e-13</v>
       </c>
       <c r="D62" t="n">
-        <v>2.646771690706373e-15</v>
+        <v>1.035616037370346e-14</v>
       </c>
       <c r="E62" t="n">
-        <v>2.646771690706373e-15</v>
+        <v>3.197442310920451e-15</v>
       </c>
       <c r="F62" t="n">
         <v>60</v>
@@ -1690,16 +1690,16 @@
         <v>0.6100000000000003</v>
       </c>
       <c r="B63" t="n">
-        <v>2.913225216616411e-13</v>
+        <v>1.84741111297626e-13</v>
       </c>
       <c r="C63" t="n">
-        <v>-7.72715225139109e-14</v>
+        <v>-3.135269821541442e-13</v>
       </c>
       <c r="D63" t="n">
-        <v>5.826450433232821e-15</v>
+        <v>3.694822225952521e-15</v>
       </c>
       <c r="E63" t="n">
-        <v>5.826450433232821e-15</v>
+        <v>6.270539643082884e-15</v>
       </c>
       <c r="F63" t="n">
         <v>61</v>
@@ -1710,16 +1710,16 @@
         <v>0.6200000000000003</v>
       </c>
       <c r="B64" t="n">
-        <v>1.441513575173303e-12</v>
+        <v>-1.518785097687214e-13</v>
       </c>
       <c r="C64" t="n">
-        <v>2.593480985524366e-13</v>
+        <v>-7.194245199571014e-14</v>
       </c>
       <c r="D64" t="n">
-        <v>2.883027150346607e-14</v>
+        <v>-3.037570195374428e-15</v>
       </c>
       <c r="E64" t="n">
-        <v>2.883027150346607e-14</v>
+        <v>1.438849039914203e-15</v>
       </c>
       <c r="F64" t="n">
         <v>62</v>
@@ -1730,16 +1730,16 @@
         <v>0.6300000000000003</v>
       </c>
       <c r="B65" t="n">
-        <v>4.130029651605582e-13</v>
+        <v>6.208367153703875e-13</v>
       </c>
       <c r="C65" t="n">
-        <v>5.080380560684716e-13</v>
+        <v>6.119549311733863e-13</v>
       </c>
       <c r="D65" t="n">
-        <v>8.260059303211165e-15</v>
+        <v>1.241673430740775e-14</v>
       </c>
       <c r="E65" t="n">
-        <v>8.260059303211165e-15</v>
+        <v>-1.223909862346773e-14</v>
       </c>
       <c r="F65" t="n">
         <v>63</v>
@@ -1750,16 +1750,16 @@
         <v>0.6400000000000003</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.181277298201167e-13</v>
+        <v>5.764277943853813e-13</v>
       </c>
       <c r="C66" t="n">
-        <v>5.151434834260726e-13</v>
+        <v>-6.572520305780927e-13</v>
       </c>
       <c r="D66" t="n">
-        <v>-2.362554596402333e-15</v>
+        <v>1.152855588770763e-14</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.362554596402333e-15</v>
+        <v>1.314504061156185e-14</v>
       </c>
       <c r="F66" t="n">
         <v>64</v>
@@ -1770,16 +1770,16 @@
         <v>0.6500000000000004</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.875300246316328e-13</v>
+        <v>-1.294075957503082e-12</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.029398788432445e-12</v>
+        <v>-1.626254686470929e-12</v>
       </c>
       <c r="D67" t="n">
-        <v>-1.175060049263266e-14</v>
+        <v>-2.588151915006165e-14</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.175060049263266e-14</v>
+        <v>3.252509372941858e-14</v>
       </c>
       <c r="F67" t="n">
         <v>65</v>
@@ -1790,16 +1790,16 @@
         <v>0.6600000000000004</v>
       </c>
       <c r="B68" t="n">
-        <v>2.060573933704291e-13</v>
+        <v>-2.167155344068306e-13</v>
       </c>
       <c r="C68" t="n">
-        <v>5.204725539442734e-13</v>
+        <v>2.398081733190338e-13</v>
       </c>
       <c r="D68" t="n">
-        <v>4.121147867408581e-15</v>
+        <v>-4.334310688136611e-15</v>
       </c>
       <c r="E68" t="n">
-        <v>4.121147867408581e-15</v>
+        <v>-4.796163466380677e-15</v>
       </c>
       <c r="F68" t="n">
         <v>66</v>
@@ -1810,16 +1810,16 @@
         <v>0.6700000000000004</v>
       </c>
       <c r="B69" t="n">
-        <v>4.352074256530614e-13</v>
+        <v>5.897504706808832e-13</v>
       </c>
       <c r="C69" t="n">
-        <v>2.406963517387339e-13</v>
+        <v>5.506706202140776e-14</v>
       </c>
       <c r="D69" t="n">
-        <v>8.704148513061228e-15</v>
+        <v>1.179500941361766e-14</v>
       </c>
       <c r="E69" t="n">
-        <v>8.704148513061228e-15</v>
+        <v>-1.101341240428155e-15</v>
       </c>
       <c r="F69" t="n">
         <v>67</v>
@@ -1830,16 +1830,16 @@
         <v>0.6800000000000004</v>
       </c>
       <c r="B70" t="n">
-        <v>8.637535131583718e-13</v>
+        <v>1.247890679678676e-13</v>
       </c>
       <c r="C70" t="n">
-        <v>9.583445148564351e-13</v>
+        <v>5.044853423896711e-13</v>
       </c>
       <c r="D70" t="n">
-        <v>1.727507026316744e-14</v>
+        <v>2.495781359357352e-15</v>
       </c>
       <c r="E70" t="n">
-        <v>1.727507026316744e-14</v>
+        <v>-1.008970684779342e-14</v>
       </c>
       <c r="F70" t="n">
         <v>68</v>
@@ -1850,16 +1850,16 @@
         <v>0.6900000000000004</v>
       </c>
       <c r="B71" t="n">
-        <v>3.819167204710538e-14</v>
+        <v>1.603162047558726e-13</v>
       </c>
       <c r="C71" t="n">
-        <v>-7.291944825738028e-13</v>
+        <v>-4.778399897986674e-13</v>
       </c>
       <c r="D71" t="n">
-        <v>7.638334409421077e-16</v>
+        <v>3.206324095117452e-15</v>
       </c>
       <c r="E71" t="n">
-        <v>7.638334409421077e-16</v>
+        <v>9.556799795973347e-15</v>
       </c>
       <c r="F71" t="n">
         <v>69</v>
@@ -1870,16 +1870,16 @@
         <v>0.7000000000000004</v>
       </c>
       <c r="B72" t="n">
-        <v>7.638334409421077e-14</v>
+        <v>8.921752225887758e-13</v>
       </c>
       <c r="C72" t="n">
-        <v>8.819611707622244e-13</v>
+        <v>-8.348877145181177e-14</v>
       </c>
       <c r="D72" t="n">
-        <v>1.527666881884215e-15</v>
+        <v>1.784350445177552e-14</v>
       </c>
       <c r="E72" t="n">
-        <v>1.527666881884215e-15</v>
+        <v>1.669775429036235e-15</v>
       </c>
       <c r="F72" t="n">
         <v>70</v>
@@ -1890,16 +1890,16 @@
         <v>0.7100000000000004</v>
       </c>
       <c r="B73" t="n">
-        <v>-2.393640841091838e-13</v>
+        <v>-2.575717417130363e-14</v>
       </c>
       <c r="C73" t="n">
-        <v>-2.211564265053312e-13</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="D73" t="n">
-        <v>-4.787281682183675e-15</v>
+        <v>-5.151434834260726e-16</v>
       </c>
       <c r="E73" t="n">
-        <v>-4.787281682183675e-15</v>
+        <v>-5.968558980384841e-15</v>
       </c>
       <c r="F73" t="n">
         <v>71</v>
@@ -1910,16 +1910,16 @@
         <v>0.7200000000000004</v>
       </c>
       <c r="B74" t="n">
-        <v>3.663735981263017e-13</v>
+        <v>-3.201883203018951e-13</v>
       </c>
       <c r="C74" t="n">
-        <v>-2.895461648222408e-13</v>
+        <v>-3.534950110406498e-13</v>
       </c>
       <c r="D74" t="n">
-        <v>7.327471962526033e-15</v>
+        <v>-6.403766406037903e-15</v>
       </c>
       <c r="E74" t="n">
-        <v>7.327471962526033e-15</v>
+        <v>7.069900220812997e-15</v>
       </c>
       <c r="F74" t="n">
         <v>72</v>
@@ -1930,16 +1930,16 @@
         <v>0.7300000000000004</v>
       </c>
       <c r="B75" t="n">
-        <v>-8.970602038971265e-14</v>
+        <v>-4.143352327901084e-13</v>
       </c>
       <c r="C75" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>2.398081733190338e-13</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.794120407794253e-15</v>
+        <v>-8.286704655802168e-15</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.794120407794253e-15</v>
+        <v>-4.796163466380677e-15</v>
       </c>
       <c r="F75" t="n">
         <v>73</v>
@@ -1950,16 +1950,16 @@
         <v>0.7400000000000004</v>
       </c>
       <c r="B76" t="n">
-        <v>2.755018435607326e-13</v>
+        <v>-1.118549697309845e-12</v>
       </c>
       <c r="C76" t="n">
-        <v>1.334932164809288e-12</v>
+        <v>9.485745522397337e-13</v>
       </c>
       <c r="D76" t="n">
-        <v>5.510036871214652e-15</v>
+        <v>-2.23709939461969e-14</v>
       </c>
       <c r="E76" t="n">
-        <v>5.510036871214652e-15</v>
+        <v>-1.897149104479467e-14</v>
       </c>
       <c r="F76" t="n">
         <v>74</v>
@@ -1970,16 +1970,16 @@
         <v>0.7500000000000004</v>
       </c>
       <c r="B77" t="n">
-        <v>3.213218191097397e-13</v>
+        <v>1.055949089189479e-12</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.513989430663059e-13</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="D77" t="n">
-        <v>6.426436382194793e-15</v>
+        <v>2.111898178378958e-14</v>
       </c>
       <c r="E77" t="n">
-        <v>6.426436382194793e-15</v>
+        <v>2.842170943040401e-15</v>
       </c>
       <c r="F77" t="n">
         <v>75</v>
@@ -1990,16 +1990,16 @@
         <v>0.7600000000000005</v>
       </c>
       <c r="B78" t="n">
-        <v>8.976708265606703e-13</v>
+        <v>-5.970779426434092e-13</v>
       </c>
       <c r="C78" t="n">
-        <v>-3.357314426466473e-13</v>
+        <v>2.131628207280301e-14</v>
       </c>
       <c r="D78" t="n">
-        <v>1.795341653121341e-14</v>
+        <v>-1.194155885286818e-14</v>
       </c>
       <c r="E78" t="n">
-        <v>1.795341653121341e-14</v>
+        <v>-4.263256414560601e-16</v>
       </c>
       <c r="F78" t="n">
         <v>76</v>
@@ -2010,16 +2010,16 @@
         <v>0.7700000000000005</v>
       </c>
       <c r="B79" t="n">
-        <v>6.428191312579656e-14</v>
+        <v>7.682743330406083e-13</v>
       </c>
       <c r="C79" t="n">
-        <v>-3.907985046680551e-13</v>
+        <v>-2.096101070492296e-13</v>
       </c>
       <c r="D79" t="n">
-        <v>1.285638262515931e-15</v>
+        <v>1.536548666081217e-14</v>
       </c>
       <c r="E79" t="n">
-        <v>1.285638262515931e-15</v>
+        <v>4.192202140984591e-15</v>
       </c>
       <c r="F79" t="n">
         <v>77</v>
@@ -2030,16 +2030,16 @@
         <v>0.7800000000000005</v>
       </c>
       <c r="B80" t="n">
-        <v>3.068656440063933e-13</v>
+        <v>5.160316618457728e-13</v>
       </c>
       <c r="C80" t="n">
-        <v>4.387601393318619e-13</v>
+        <v>-3.446132268436486e-13</v>
       </c>
       <c r="D80" t="n">
-        <v>6.137312880127865e-15</v>
+        <v>1.032063323691545e-14</v>
       </c>
       <c r="E80" t="n">
-        <v>6.137312880127865e-15</v>
+        <v>6.892264536872972e-15</v>
       </c>
       <c r="F80" t="n">
         <v>78</v>
@@ -2050,16 +2050,16 @@
         <v>0.7900000000000005</v>
       </c>
       <c r="B81" t="n">
-        <v>7.238654120556021e-14</v>
+        <v>2.433608869978343e-13</v>
       </c>
       <c r="C81" t="n">
-        <v>1.003641614261142e-13</v>
+        <v>3.748112931134528e-13</v>
       </c>
       <c r="D81" t="n">
-        <v>1.447730824111204e-15</v>
+        <v>4.867217739956687e-15</v>
       </c>
       <c r="E81" t="n">
-        <v>1.447730824111204e-15</v>
+        <v>-7.496225862269057e-15</v>
       </c>
       <c r="F81" t="n">
         <v>79</v>
@@ -2070,16 +2070,16 @@
         <v>0.8000000000000005</v>
       </c>
       <c r="B82" t="n">
-        <v>-4.747313653297169e-13</v>
+        <v>-2.176037128265307e-13</v>
       </c>
       <c r="C82" t="n">
-        <v>-9.388045896230324e-13</v>
+        <v>-1.616484723854228e-12</v>
       </c>
       <c r="D82" t="n">
-        <v>-9.494627306594338e-15</v>
+        <v>-4.352074256530614e-15</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.494627306594338e-15</v>
+        <v>3.232969447708456e-14</v>
       </c>
       <c r="F82" t="n">
         <v>80</v>
@@ -2090,16 +2090,16 @@
         <v>0.8100000000000005</v>
       </c>
       <c r="B83" t="n">
-        <v>-7.460698725481052e-13</v>
+        <v>-3.197442310920451e-14</v>
       </c>
       <c r="C83" t="n">
-        <v>8.535394613318203e-13</v>
+        <v>-9.325873406851315e-13</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.49213974509621e-14</v>
+        <v>-6.394884621840901e-16</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.49213974509621e-14</v>
+        <v>1.865174681370263e-14</v>
       </c>
       <c r="F83" t="n">
         <v>81</v>
@@ -2110,16 +2110,16 @@
         <v>0.8200000000000005</v>
       </c>
       <c r="B84" t="n">
-        <v>1.0627054791712e-12</v>
+        <v>-2.984279490192421e-13</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.270983318590879e-12</v>
+        <v>-1.119104808822158e-13</v>
       </c>
       <c r="D84" t="n">
-        <v>2.1254109583424e-14</v>
+        <v>-5.968558980384841e-15</v>
       </c>
       <c r="E84" t="n">
-        <v>2.1254109583424e-14</v>
+        <v>2.238209617644316e-15</v>
       </c>
       <c r="F84" t="n">
         <v>82</v>
@@ -2130,16 +2130,16 @@
         <v>0.8300000000000005</v>
       </c>
       <c r="B85" t="n">
-        <v>4.392042285417119e-13</v>
+        <v>-7.895906151134113e-13</v>
       </c>
       <c r="C85" t="n">
-        <v>-2.646771690706373e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="D85" t="n">
-        <v>8.784084570834239e-15</v>
+        <v>-1.579181230226823e-14</v>
       </c>
       <c r="E85" t="n">
-        <v>8.784084570834239e-15</v>
+        <v>4.547473508864641e-15</v>
       </c>
       <c r="F85" t="n">
         <v>83</v>
@@ -2150,16 +2150,16 @@
         <v>0.8400000000000005</v>
       </c>
       <c r="B86" t="n">
-        <v>-3.161915174132446e-13</v>
+        <v>9.334755191048316e-13</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.021405182655144e-13</v>
+        <v>-1.77635683940025e-13</v>
       </c>
       <c r="D86" t="n">
-        <v>-6.323830348264892e-15</v>
+        <v>1.866951038209663e-14</v>
       </c>
       <c r="E86" t="n">
-        <v>-6.323830348264892e-15</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="F86" t="n">
         <v>84</v>
@@ -2170,16 +2170,16 @@
         <v>0.8500000000000005</v>
       </c>
       <c r="B87" t="n">
-        <v>-2.375877272697835e-13</v>
+        <v>-1.046274178406748e-12</v>
       </c>
       <c r="C87" t="n">
-        <v>7.247535904753022e-13</v>
+        <v>1.525890525044815e-12</v>
       </c>
       <c r="D87" t="n">
-        <v>-4.75175454539567e-15</v>
+        <v>-2.092548356813495e-14</v>
       </c>
       <c r="E87" t="n">
-        <v>-4.75175454539567e-15</v>
+        <v>-3.05178105008963e-14</v>
       </c>
       <c r="F87" t="n">
         <v>85</v>
@@ -2190,16 +2190,16 @@
         <v>0.8600000000000005</v>
       </c>
       <c r="B88" t="n">
-        <v>1.052491427344648e-12</v>
+        <v>2.380318164796336e-13</v>
       </c>
       <c r="C88" t="n">
-        <v>-4.352074256530614e-13</v>
+        <v>-3.064215547965432e-13</v>
       </c>
       <c r="D88" t="n">
-        <v>2.104982854689297e-14</v>
+        <v>4.760636329592672e-15</v>
       </c>
       <c r="E88" t="n">
-        <v>2.104982854689297e-14</v>
+        <v>6.128431095930864e-15</v>
       </c>
       <c r="F88" t="n">
         <v>86</v>
@@ -2210,16 +2210,16 @@
         <v>0.8700000000000006</v>
       </c>
       <c r="B89" t="n">
-        <v>4.89386309254769e-13</v>
+        <v>-1.092459456231154e-13</v>
       </c>
       <c r="C89" t="n">
-        <v>-8.339995360984176e-13</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="D89" t="n">
-        <v>9.78772618509538e-15</v>
+        <v>-2.184918912462308e-15</v>
       </c>
       <c r="E89" t="n">
-        <v>9.78772618509538e-15</v>
+        <v>-9.237055564881303e-16</v>
       </c>
       <c r="F89" t="n">
         <v>87</v>
@@ -2230,16 +2230,16 @@
         <v>0.8800000000000006</v>
       </c>
       <c r="B90" t="n">
-        <v>2.819078304128197e-12</v>
+        <v>1.763922341524449e-12</v>
       </c>
       <c r="C90" t="n">
-        <v>2.060573933704291e-13</v>
+        <v>-1.509903313490213e-14</v>
       </c>
       <c r="D90" t="n">
-        <v>5.638156608256395e-14</v>
+        <v>3.527844683048897e-14</v>
       </c>
       <c r="E90" t="n">
-        <v>5.638156608256395e-14</v>
+        <v>3.019806626980426e-16</v>
       </c>
       <c r="F90" t="n">
         <v>88</v>
@@ -2250,16 +2250,16 @@
         <v>0.8900000000000006</v>
       </c>
       <c r="B91" t="n">
-        <v>1.194599974496668e-12</v>
+        <v>4.281019982954604e-13</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.160849194548064e-12</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="D91" t="n">
-        <v>2.389199948993337e-14</v>
+        <v>8.562039965909208e-15</v>
       </c>
       <c r="E91" t="n">
-        <v>2.389199948993337e-14</v>
+        <v>-1.70530256582424e-14</v>
       </c>
       <c r="F91" t="n">
         <v>89</v>
@@ -2270,16 +2270,16 @@
         <v>0.9000000000000006</v>
       </c>
       <c r="B92" t="n">
-        <v>6.075140390748857e-13</v>
+        <v>8.677503160470224e-13</v>
       </c>
       <c r="C92" t="n">
-        <v>4.04121180963557e-13</v>
+        <v>-6.483702463810914e-14</v>
       </c>
       <c r="D92" t="n">
-        <v>1.215028078149771e-14</v>
+        <v>1.735500632094045e-14</v>
       </c>
       <c r="E92" t="n">
-        <v>1.215028078149771e-14</v>
+        <v>1.296740492762183e-15</v>
       </c>
       <c r="F92" t="n">
         <v>90</v>
@@ -2290,16 +2290,16 @@
         <v>0.9100000000000006</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.103117597267556e-12</v>
+        <v>4.307665335545607e-13</v>
       </c>
       <c r="C93" t="n">
-        <v>-5.515587986337778e-13</v>
+        <v>-2.691180611691379e-13</v>
       </c>
       <c r="D93" t="n">
-        <v>-2.206235194535111e-14</v>
+        <v>8.615330671091214e-15</v>
       </c>
       <c r="E93" t="n">
-        <v>-2.206235194535111e-14</v>
+        <v>5.382361223382759e-15</v>
       </c>
       <c r="F93" t="n">
         <v>91</v>
@@ -2310,16 +2310,16 @@
         <v>0.9200000000000006</v>
       </c>
       <c r="B94" t="n">
-        <v>1.577404873387422e-12</v>
+        <v>9.521272659185342e-13</v>
       </c>
       <c r="C94" t="n">
-        <v>-2.953193245502916e-13</v>
+        <v>7.549516567451064e-14</v>
       </c>
       <c r="D94" t="n">
-        <v>3.154809746774845e-14</v>
+        <v>1.904254531837069e-14</v>
       </c>
       <c r="E94" t="n">
-        <v>3.154809746774845e-14</v>
+        <v>-1.509903313490213e-15</v>
       </c>
       <c r="F94" t="n">
         <v>92</v>
@@ -2330,16 +2330,16 @@
         <v>0.9300000000000006</v>
       </c>
       <c r="B95" t="n">
-        <v>1.55875312657372e-12</v>
+        <v>1.909583602355269e-12</v>
       </c>
       <c r="C95" t="n">
-        <v>8.597567102697212e-13</v>
+        <v>-2.602806858931217e-12</v>
       </c>
       <c r="D95" t="n">
-        <v>3.11750625314744e-14</v>
+        <v>3.819167204710538e-14</v>
       </c>
       <c r="E95" t="n">
-        <v>3.11750625314744e-14</v>
+        <v>5.205613717862434e-14</v>
       </c>
       <c r="F95" t="n">
         <v>93</v>
@@ -2350,16 +2350,16 @@
         <v>0.9400000000000006</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.301181384860683e-12</v>
+        <v>-1.172395514004165e-12</v>
       </c>
       <c r="C96" t="n">
-        <v>-4.796163466380676e-13</v>
+        <v>-3.068656440063933e-13</v>
       </c>
       <c r="D96" t="n">
-        <v>-2.602362769721367e-14</v>
+        <v>-2.34479102800833e-14</v>
       </c>
       <c r="E96" t="n">
-        <v>-2.602362769721367e-14</v>
+        <v>6.137312880127865e-15</v>
       </c>
       <c r="F96" t="n">
         <v>94</v>
@@ -2370,16 +2370,16 @@
         <v>0.9500000000000006</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.268318783331779e-12</v>
+        <v>99.99999999999891</v>
       </c>
       <c r="C97" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>-1.777245017819951e-12</v>
       </c>
       <c r="D97" t="n">
-        <v>-2.536637566663558e-14</v>
+        <v>1.999999999999978</v>
       </c>
       <c r="E97" t="n">
-        <v>-2.536637566663558e-14</v>
+        <v>3.554490035639901e-14</v>
       </c>
       <c r="F97" t="n">
         <v>95</v>
@@ -2390,16 +2390,16 @@
         <v>0.9600000000000006</v>
       </c>
       <c r="B98" t="n">
-        <v>250.0000000000006</v>
+        <v>-2.184918912462308e-13</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.550759520796419e-12</v>
+        <v>99.99999999999821</v>
       </c>
       <c r="D98" t="n">
-        <v>5.000000000000012</v>
+        <v>-4.369837824924616e-15</v>
       </c>
       <c r="E98" t="n">
-        <v>5.000000000000012</v>
+        <v>-1.999999999999964</v>
       </c>
       <c r="F98" t="n">
         <v>96</v>
@@ -2410,16 +2410,16 @@
         <v>0.9700000000000006</v>
       </c>
       <c r="B99" t="n">
-        <v>-2.718714142702083e-12</v>
+        <v>150.0000000000011</v>
       </c>
       <c r="C99" t="n">
-        <v>200.0000000000008</v>
+        <v>1.831645946026583e-12</v>
       </c>
       <c r="D99" t="n">
-        <v>-5.437428285404167e-14</v>
+        <v>3.000000000000022</v>
       </c>
       <c r="E99" t="n">
-        <v>-5.437428285404167e-14</v>
+        <v>-3.663291892053166e-14</v>
       </c>
       <c r="F99" t="n">
         <v>97</v>
@@ -2430,16 +2430,16 @@
         <v>0.9800000000000006</v>
       </c>
       <c r="B100" t="n">
-        <v>149.9999999999973</v>
+        <v>249.9999999999997</v>
       </c>
       <c r="C100" t="n">
-        <v>100.0000000000029</v>
+        <v>7.254641332110623e-12</v>
       </c>
       <c r="D100" t="n">
-        <v>2.999999999999946</v>
+        <v>4.999999999999994</v>
       </c>
       <c r="E100" t="n">
-        <v>2.999999999999946</v>
+        <v>-1.450928266422125e-13</v>
       </c>
       <c r="F100" t="n">
         <v>98</v>
@@ -2450,16 +2450,16 @@
         <v>0.9900000000000007</v>
       </c>
       <c r="B101" t="n">
-        <v>1.740829702612245e-13</v>
+        <v>3.014477556462225e-12</v>
       </c>
       <c r="C101" t="n">
-        <v>49.99999999999935</v>
+        <v>49.99999999999923</v>
       </c>
       <c r="D101" t="n">
-        <v>3.481659405224491e-15</v>
+        <v>6.02895511292445e-14</v>
       </c>
       <c r="E101" t="n">
-        <v>3.481659405224491e-15</v>
+        <v>-0.9999999999999845</v>
       </c>
       <c r="F101" t="n">
         <v>99</v>
